--- a/1st_excel_frompy.xlsx
+++ b/1st_excel_frompy.xlsx
@@ -424,12 +424,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>HELLO</t>
+          <t>Nikos</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>THERE</t>
+          <t>Nikos</t>
         </is>
       </c>
     </row>
